--- a/data_excel/889.xlsx
+++ b/data_excel/889.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -126,11 +126,11 @@
     <t>13</t>
   </si>
   <si>
-    <t>-</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +513,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" activeCellId="1" sqref="C11 C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data_excel/889.xlsx
+++ b/data_excel/889.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>飛寶</t>
   </si>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +521,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -582,8 +590,8 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
@@ -598,7 +606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -611,8 +619,8 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -701,8 +709,8 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>36</v>
